--- a/class_schedules_spring_2019/ARABIC (ARBC).xlsx
+++ b/class_schedules_spring_2019/ARABIC (ARBC).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>102</t>
   </si>
@@ -67,28 +67,40 @@
     <t>F</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
     <t>Beginning Arabic II MTWRF</t>
   </si>
   <si>
-    <t>Language &amp; Society-Arab World TR</t>
+    <t>Language &amp; Society Arab World TR</t>
   </si>
   <si>
     <t>Intermediate Arabic II MTWRF</t>
   </si>
   <si>
-    <t>SLP: Conversational Arabic</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0130-0245pm</t>
-  </si>
-  <si>
-    <t>1100-1150am</t>
+    <t>SLP: Conversational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0245pm</t>
+  </si>
+  <si>
+    <t>1150am</t>
   </si>
   <si>
     <t>MTWF</t>
@@ -106,7 +118,7 @@
     <t>AJLC</t>
   </si>
   <si>
-    <t>1230-0120pm</t>
+    <t>1230</t>
   </si>
   <si>
     <t>TBA</t>
@@ -118,7 +130,13 @@
     <t>104</t>
   </si>
   <si>
-    <t>Al-Raba'a Basem</t>
+    <t>0120pm</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Raba'a Basem</t>
   </si>
   <si>
     <t>Hamilton Elizabeth</t>
@@ -479,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -516,8 +534,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -540,19 +564,25 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -575,19 +605,25 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -610,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -619,10 +655,16 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -645,19 +687,25 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
       </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -676,23 +724,26 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -711,20 +762,23 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
